--- a/biology/Botanique/Proteanae/Proteanae.xlsx
+++ b/biology/Botanique/Proteanae/Proteanae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Proteanae sont un super-ordre de plantes à fleurs comprenant notamment l'ordre des Proteales.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (18 février 2021)[2] :
-Nelumbonales Nakai ex Reveal, Phytologia 79(2): 72 (1995) [1996]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (18 février 2021) :
+Nelumbonales Nakai ex Reveal, Phytologia 79(2): 72 (1995) 
 Nelumbonales Willk. &amp; Lange, Prodr. Fl. Hispan. 1: 30 (1861)
 Proteales Juss. ex Bercht. &amp; J. Presl, Prir. Rostlin (1820)
 Sabiales Takht., Diversity Classific. Fl. Pl. 304	(1997)</t>
